--- a/result/sentiment_analysis/score3.xlsx
+++ b/result/sentiment_analysis/score3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssakai/prog/senior-thesis/result/sentiment_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C5C9B-7479-0341-A479-3A12D2C7B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63C905F-7FB7-7548-AB0D-D09373C7F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{98A95AD9-7D65-4B31-8919-1A75B56415C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{98A95AD9-7D65-4B31-8919-1A75B56415C7}"/>
   </bookViews>
   <sheets>
     <sheet name="believe3" sheetId="4" r:id="rId1"/>
@@ -4341,8 +4341,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -4358,7 +4358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>0.5</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>-0.5</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.5</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.5</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>-0.5</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>-0.5</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>-0.5</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.5</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="19">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.5</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>-0.5</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>-0.5</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>-0.5</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19" hidden="1">
+    <row r="16" spans="1:2" hidden="1">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>-0.5</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19" hidden="1">
+    <row r="26" spans="1:2" hidden="1">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19" hidden="1">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" hidden="1">
+    <row r="32" spans="1:2" hidden="1">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19" hidden="1">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>-0.5</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19" hidden="1">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0.5</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>0.5</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>0.5</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="19">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="19">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="19">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="19">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="19">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="19">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="19">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="19">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="19">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="19">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19">
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19" hidden="1">
+    <row r="18" spans="1:2" hidden="1">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19" hidden="1">
+    <row r="20" spans="1:2" hidden="1">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>-0.5</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" hidden="1">
+    <row r="32" spans="1:2" hidden="1">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19" hidden="1">
+    <row r="38" spans="1:2" hidden="1">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0.5</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19" hidden="1">
+    <row r="78" spans="1:2" hidden="1">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19" hidden="1">
+    <row r="86" spans="1:2" hidden="1">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19" hidden="1">
+    <row r="88" spans="1:2" hidden="1">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>0.5</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="19">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="19">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="19">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="19">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="19">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="19">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="19">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="19">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="19">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="19">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19" hidden="1">
+    <row r="132" spans="1:2" hidden="1">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19" hidden="1">
+    <row r="134" spans="1:2" hidden="1">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19">
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19">
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" hidden="1">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" hidden="1">
+    <row r="6" spans="1:2" hidden="1">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19" hidden="1">
+    <row r="12" spans="1:2" hidden="1">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19" hidden="1">
+    <row r="14" spans="1:2" hidden="1">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="19">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>-0.5</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19" hidden="1">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" hidden="1">
+    <row r="32" spans="1:2" hidden="1">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19" hidden="1">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19" hidden="1">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19" hidden="1">
+    <row r="46" spans="1:2" hidden="1">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19" hidden="1">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19" hidden="1">
+    <row r="60" spans="1:2" hidden="1">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19" hidden="1">
+    <row r="62" spans="1:2" hidden="1">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19" hidden="1">
+    <row r="64" spans="1:2" hidden="1">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19" hidden="1">
+    <row r="72" spans="1:2" hidden="1">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19" hidden="1">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19" hidden="1">
+    <row r="78" spans="1:2" hidden="1">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19" hidden="1">
+    <row r="80" spans="1:2" hidden="1">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19" hidden="1">
+    <row r="90" spans="1:2" hidden="1">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19" hidden="1">
+    <row r="94" spans="1:2" hidden="1">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19" hidden="1">
+    <row r="106" spans="1:2" hidden="1">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" hidden="1">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19" hidden="1">
+    <row r="24" spans="1:2" hidden="1">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19" hidden="1">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19" hidden="1">
+    <row r="36" spans="1:2" hidden="1">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19" hidden="1">
+    <row r="58" spans="1:2" hidden="1">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>-0.5</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19" hidden="1">
+    <row r="68" spans="1:2" hidden="1">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19" hidden="1">
+    <row r="72" spans="1:2" hidden="1">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19" hidden="1">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19" hidden="1">
+    <row r="76" spans="1:2" hidden="1">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19" hidden="1">
+    <row r="80" spans="1:2" hidden="1">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19" hidden="1">
+    <row r="88" spans="1:2" hidden="1">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19" hidden="1">
+    <row r="96" spans="1:2" hidden="1">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19" hidden="1">
+    <row r="106" spans="1:2" hidden="1">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="19">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19" hidden="1">
+    <row r="110" spans="1:2" hidden="1">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="19">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="19">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="19">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="19">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="19">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="19" hidden="1">
+    <row r="122" spans="1:2" hidden="1">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="19">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="19">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="19">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19" hidden="1">
+    <row r="130" spans="1:2" hidden="1">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19" hidden="1">
+    <row r="134" spans="1:2" hidden="1">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19">
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19">
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19" hidden="1">
+    <row r="142" spans="1:2" hidden="1">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" hidden="1">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.5</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0.5</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>-0.5</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19" hidden="1">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.5</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19" hidden="1">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19" hidden="1">
+    <row r="60" spans="1:2" hidden="1">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>-0.5</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19" hidden="1">
+    <row r="66" spans="1:2" hidden="1">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19" hidden="1">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -18360,7 +18360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19" hidden="1">
+    <row r="84" spans="1:2" hidden="1">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19" hidden="1">
+    <row r="94" spans="1:2" hidden="1">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19" hidden="1">
+    <row r="100" spans="1:2" hidden="1">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="19">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="19">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="19">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="19">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="19">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="19">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="19">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="19" hidden="1">
+    <row r="124" spans="1:2" hidden="1">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="19">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="19">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19" hidden="1">
+    <row r="130" spans="1:2" hidden="1">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19">
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19" hidden="1">
+    <row r="138" spans="1:2" hidden="1">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19" hidden="1">
+    <row r="140" spans="1:2" hidden="1">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19">
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19">
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="19">
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>-0.5</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="19">
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="19" hidden="1">
+    <row r="150" spans="1:2" hidden="1">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="19">
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="19">
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="19">
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="19">
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="19" hidden="1">
+    <row r="160" spans="1:2" hidden="1">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="19">
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="19">
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="19">
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -19559,7 +19559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -19591,7 +19591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -22111,7 +22111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" hidden="1">
+    <row r="8" spans="1:2" hidden="1">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19" hidden="1">
+    <row r="12" spans="1:2" hidden="1">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -22223,7 +22223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19" hidden="1">
+    <row r="20" spans="1:2" hidden="1">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19" hidden="1">
+    <row r="24" spans="1:2" hidden="1">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19" hidden="1">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19" hidden="1">
+    <row r="38" spans="1:2" hidden="1">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.5</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -22463,7 +22463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>-0.5</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19" hidden="1">
+    <row r="54" spans="1:2" hidden="1">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19" hidden="1">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -22527,7 +22527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19" hidden="1">
+    <row r="58" spans="1:2" hidden="1">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19" hidden="1">
+    <row r="62" spans="1:2" hidden="1">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -22575,7 +22575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0.5</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19" hidden="1">
+    <row r="66" spans="1:2" hidden="1">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19" hidden="1">
+    <row r="68" spans="1:2" hidden="1">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -22639,7 +22639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19" hidden="1">
+    <row r="72" spans="1:2" hidden="1">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -22687,7 +22687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>-0.5</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19" hidden="1">
+    <row r="86" spans="1:2" hidden="1">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19" hidden="1">
+    <row r="88" spans="1:2" hidden="1">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" hidden="1">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" hidden="1">
+    <row r="8" spans="1:2" hidden="1">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -22970,7 +22970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19" hidden="1">
+    <row r="18" spans="1:2" hidden="1">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19" hidden="1">
+    <row r="22" spans="1:2" hidden="1">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19" hidden="1">
+    <row r="24" spans="1:2" hidden="1">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19" hidden="1">
+    <row r="26" spans="1:2" hidden="1">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19" hidden="1">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0.5</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19" hidden="1">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -23146,7 +23146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19" hidden="1">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.5</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19" hidden="1">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -23338,7 +23338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19" hidden="1">
+    <row r="60" spans="1:2" hidden="1">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19" hidden="1">
+    <row r="62" spans="1:2" hidden="1">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -23370,7 +23370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>-0.5</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19" hidden="1">
+    <row r="70" spans="1:2" hidden="1">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19" hidden="1">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19" hidden="1">
+    <row r="76" spans="1:2" hidden="1">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -23530,7 +23530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19" hidden="1">
+    <row r="86" spans="1:2" hidden="1">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -23610,7 +23610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19" hidden="1">
+    <row r="100" spans="1:2" hidden="1">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -23690,7 +23690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="19">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="19">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -23738,7 +23738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="19">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -23754,7 +23754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="19">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23770,7 +23770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="19">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="19" hidden="1">
+    <row r="116" spans="1:2" hidden="1">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -23802,7 +23802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="19">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -23818,7 +23818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="19">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="19">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="19" hidden="1">
+    <row r="124" spans="1:2" hidden="1">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="19" hidden="1">
+    <row r="126" spans="1:2" hidden="1">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="19">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -23898,7 +23898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19" hidden="1">
+    <row r="132" spans="1:2" hidden="1">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -23930,7 +23930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19" hidden="1">
+    <row r="134" spans="1:2" hidden="1">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -24004,7 +24004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -24020,7 +24020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -24036,7 +24036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -24068,7 +24068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24084,7 +24084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -24100,7 +24100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -24132,7 +24132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.5</v>
       </c>
@@ -24180,7 +24180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -24228,7 +24228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -24244,7 +24244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -24388,7 +24388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -24404,7 +24404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -24436,7 +24436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>-0.5</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -24541,7 +24541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -24557,7 +24557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" hidden="1">
+    <row r="4" spans="1:2" hidden="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -24573,7 +24573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
@@ -24621,7 +24621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -24701,7 +24701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -24733,7 +24733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24781,7 +24781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19" hidden="1">
+    <row r="32" spans="1:2" hidden="1">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19" hidden="1">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.5</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19" hidden="1">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -24893,7 +24893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -24909,7 +24909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -24973,7 +24973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19" hidden="1">
+    <row r="60" spans="1:2" hidden="1">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>-0.5</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>0.5</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -25117,7 +25117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -25174,7 +25174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -25190,7 +25190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -25238,7 +25238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -25254,7 +25254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -25270,7 +25270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -25286,7 +25286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -25302,7 +25302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.69999998807907104</v>
       </c>
@@ -25318,7 +25318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>-0.5</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -25398,7 +25398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -25414,7 +25414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -25510,7 +25510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.5</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -25638,7 +25638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>-0.5</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -25702,7 +25702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>-0.5</v>
       </c>
@@ -25766,7 +25766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>-0.69999998807907104</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -25854,7 +25854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>-0.89999997615814198</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>-0.10000000149011599</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -25918,7 +25918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -25934,7 +25934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>0.30000001192092801</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>-0.5</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -25982,7 +25982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>0.60000002384185702</v>
       </c>
@@ -25998,7 +25998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -26030,7 +26030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>-0.60000002384185702</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -26078,7 +26078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -26094,7 +26094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>-0.20000000298023199</v>
       </c>
@@ -26126,7 +26126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -26142,7 +26142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>0.40000000596046398</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -26174,7 +26174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>-0.40000000596046398</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>0.89999997615814198</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -26238,7 +26238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>-0.30000001192092801</v>
       </c>
@@ -26254,7 +26254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>0.10000000149011599</v>
       </c>
@@ -26270,7 +26270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>0.20000000298023199</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>0.80000001192092896</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>-0.80000001192092896</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
